--- a/src/main/java/testdata/corevance_testdata.xlsx
+++ b/src/main/java/testdata/corevance_testdata.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automationtask_Corevance\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkam Sairam\git\repository11\corevance-task\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7EB344-F09F-4F40-BD48-CC6AC67299B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2101C907-B46D-4E39-908A-263A815E4BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{832D1609-7882-4D02-B016-D6B682224DCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{832D1609-7882-4D02-B016-D6B682224DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Existcredentials" sheetId="3" r:id="rId1"/>
-    <sheet name="Email" sheetId="2" r:id="rId2"/>
+    <sheet name="Email" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>Test@123</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>jakkamsairam333@gmail.com</t>
   </si>
   <si>
     <t>Firstname</t>
@@ -432,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2960F7E4-85A2-471A-9779-426D603C81E6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -464,60 +458,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671E2D4B-C2C6-47B2-AD10-D80A96A4A888}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3425240-2C2C-44B7-8BB5-771BA4D335A0}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2DBF1151-0128-4E15-B4A4-76928C72A43E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/testdata/corevance_testdata.xlsx
+++ b/src/main/java/testdata/corevance_testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkam Sairam\git\repository11\corevance-task\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2101C907-B46D-4E39-908A-263A815E4BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C8EDB8-6A90-478C-8F52-E81FDA10F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{832D1609-7882-4D02-B016-D6B682224DCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{832D1609-7882-4D02-B016-D6B682224DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Existcredentials" sheetId="3" r:id="rId1"/>
     <sheet name="Email" sheetId="4" r:id="rId2"/>
+    <sheet name="Attendee_details" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -62,6 +63,48 @@
   </si>
   <si>
     <t>Qa Automation Egineer</t>
+  </si>
+  <si>
+    <t>organisation</t>
+  </si>
+  <si>
+    <t>job title</t>
+  </si>
+  <si>
+    <t>Attendee fname</t>
+  </si>
+  <si>
+    <t>Attendee lname</t>
+  </si>
+  <si>
+    <t>Attendee email</t>
+  </si>
+  <si>
+    <t>Attendee oragnisation</t>
+  </si>
+  <si>
+    <t>Attendee jobtitle</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Qa</t>
+  </si>
+  <si>
+    <t>Jakkam</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>jakkamsairam3@gmail.com</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
   </si>
 </sst>
 </file>
@@ -461,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3425240-2C2C-44B7-8BB5-771BA4D335A0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -498,4 +541,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ACC895-65FE-4912-A775-47FE8918ECC1}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{71B4780F-B109-46F2-9640-562591F92B03}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>